--- a/biology/Médecine/Potomanie/Potomanie.xlsx
+++ b/biology/Médecine/Potomanie/Potomanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La potomanie (du latin potare, « boire » et mania, « habitude fortement marquée »), polydipsie primaire ou polydipsie psychologique, se caractérise par un besoin irrépressible de boire constamment[1]. C'est une forme particulière de polydipsie. Le potomane boit tout liquide à sa portée, principalement de l'eau. Il doit être différencié d'un diabète insipide grâce à une épreuve de restriction hydrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La potomanie (du latin potare, « boire » et mania, « habitude fortement marquée »), polydipsie primaire ou polydipsie psychologique, se caractérise par un besoin irrépressible de boire constamment. C'est une forme particulière de polydipsie. Le potomane boit tout liquide à sa portée, principalement de l'eau. Il doit être différencié d'un diabète insipide grâce à une épreuve de restriction hydrique.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le patient boit de grandes quantités d'eau qui diluent le secteur extra-cellulaire et diminuent la pression osmotique. Le métabolisme  répond en diminuant le niveau d'hormone anti-diurétique (vasopressine), ce qui entraîne une production accrue d'urines (polyurie). Cette urine est diluée, elle a une concentration en électrolytes faible.
-Les patients peuvent se plaindre cependant d'une bouche sèche, qui peut être un effet indésirable d'un médicament (souvent une phénothiazine) utilisé dans certains troubles mentaux[2]. La polydipsie est alors secondaire, iatrogène.
-Quelques rares formes de potomanie sont non psychogènes (hyperglobulinémie sévère dans le cadre d'une hépatite auto-immune)[3].
+Les patients peuvent se plaindre cependant d'une bouche sèche, qui peut être un effet indésirable d'un médicament (souvent une phénothiazine) utilisé dans certains troubles mentaux. La polydipsie est alors secondaire, iatrogène.
+Quelques rares formes de potomanie sont non psychogènes (hyperglobulinémie sévère dans le cadre d'une hépatite auto-immune).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Présentation clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients sont en demande de liquides de n'importe quelle origine.
 Dans des cas extrêmes, les reins du patient ne peuvent surmonter la surcharge d'apports hydriques, entraînant une rétention hydrique avec une prise de poids ou des œdèmes.
@@ -577,9 +593,11 @@
           <t>Démarche diagnostique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le test de choix pour distinguer une polydipsie primaire d'un diabète insipide est la restriction hydrique (diminution et mesure des apports à 1 200 ml/j). Dans la polydipsie primaire, l'osmolalité urinaire va augmenter et se stabiliser au-dessus de 280 Osm/kg[4]. Une stabilisation à une osmolalité inférieure à 280 Osm/kg signale un diabète insipide.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test de choix pour distinguer une polydipsie primaire d'un diabète insipide est la restriction hydrique (diminution et mesure des apports à 1 200 ml/j). Dans la polydipsie primaire, l'osmolalité urinaire va augmenter et se stabiliser au-dessus de 280 Osm/kg. Une stabilisation à une osmolalité inférieure à 280 Osm/kg signale un diabète insipide.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Un traitement du trouble psychiatrique sous-jacent est nécessaire.
 Si le patient est à l’hôpital ou dans une institution, un contrôle de ses prises hydriques par le personnel est nécessaire pour contrôler et limiter la prise d'eau.
@@ -640,7 +660,9 @@
           <t>Profil des patients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La polydipsie d'origine psychogénique est un type de polydipsie décrite chez des patients avec une pathologie mentale ou un retard mental. Elle est présente chez une partie des patients atteints de schizophrénie. Ces patients ont souvent une longue histoire pathologique et montrent des ventricules cérébraux dilatés et un cortex cérébral réduit qui rendent difficile de séparer une cause psychiatrique d'une autre cause [réf. souhaitée].
 On peut trouver une potomanie chez des patients sans troubles mentaux sérieux. Cependant, on ne retrouve pas de recherche exhaustive sur le sujet mis à part quelques observations anecdotiques.
@@ -674,9 +696,11 @@
           <t>Art et culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Emily Loizeau a sorti en mai 2016 Mona[5], chanson sur une dame âgée atteinte de potomanie.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Emily Loizeau a sorti en mai 2016 Mona, chanson sur une dame âgée atteinte de potomanie.
 Amélie Nothomb dit avoir souffert, enfant, de "crises de potomanie" dans Biographie de la faim.</t>
         </is>
       </c>
